--- a/saxford.xlsx
+++ b/saxford.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Game\TF2\MvM\Potato.tf\Mission\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AF34A7BD-9404-405E-A2D7-3FE054EFBE19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EAF4925-3663-42AA-B6A0-B775888626F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{640312FD-CF6C-408B-8C33-A1466D2CE21C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>int</t>
   </si>
@@ -63,6 +63,9 @@
   </si>
   <si>
     <t>Streetway Sections</t>
+  </si>
+  <si>
+    <t>Grim Memorial</t>
   </si>
 </sst>
 </file>
@@ -415,10 +418,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EE54990-289F-46B7-B7A0-D0FFF5C2C1C1}">
-  <dimension ref="B2:J3"/>
+  <dimension ref="B2:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -460,6 +463,14 @@
         <v>1</v>
       </c>
     </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
